--- a/mapping_schemes/south/LSO_RES.xlsx
+++ b/mapping_schemes/south/LSO_RES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/WIP/africa/data/Africa_Map/South/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEEA664-7F79-B648-BFEA-5333606A4540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D850CA-8FC6-0046-9F8A-99687C52A5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12040" yWindow="460" windowWidth="13980" windowHeight="17160" activeTab="2" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
+    <workbookView xWindow="12040" yWindow="460" windowWidth="13980" windowHeight="17160" activeTab="1" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
   </bookViews>
   <sheets>
     <sheet name="Material_1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="87">
   <si>
     <t>MATO</t>
   </si>
@@ -3285,8 +3285,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3559,13 +3559,22 @@
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
@@ -3983,7 +3992,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E33"/>
     </sheetView>
   </sheetViews>
